--- a/HROADS/HROADS-Modelo Físico.xlsx
+++ b/HROADS/HROADS-Modelo Físico.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23822"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20375"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9AB7237-DC93-4A2D-B91F-367073D429E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FIC\Desktop\Andre\Senai_sprint1_bd\HROADS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557DBA19-880F-4A6B-ABF8-93A04F71A0B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HROADS-MODELO-FISICO" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -95,7 +100,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +116,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -180,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -190,6 +203,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -208,7 +222,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -507,18 +521,18 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -532,7 +546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -546,7 +560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -560,8 +574,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -574,7 +588,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -584,26 +598,27 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>